--- a/processed_files/NEW TRACKER - 2023-11-16 - 2023-11-30.xlsx
+++ b/processed_files/NEW TRACKER - 2023-11-16 - 2023-11-30.xlsx
@@ -2970,20 +2970,20 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>Elli Hernandez</t>
+          <t>Miriam Hernandez</t>
         </is>
       </c>
       <c r="B8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1697.62</v>
+        <v>1403.5</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>67.90000000000001</v>
+        <v>56.14</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16</v>
+        <v>56.07</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>24</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>51.90000000000001</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -3004,20 +3004,20 @@
     <row r="9">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>Miriam Hernandez</t>
+          <t>Elli Hernandez</t>
         </is>
       </c>
       <c r="B9" s="5" t="n">
         <v>0</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1403.5</v>
+        <v>1697.62</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>56.14</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>56.07</v>
+        <v>16</v>
       </c>
       <c r="F9" s="5" t="n">
         <v>24</v>
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07000000000000001</v>
+        <v>51.90000000000001</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
